--- a/last_predictions_2hlayer.xlsx
+++ b/last_predictions_2hlayer.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>71.67960357666016</v>
+        <v>69.84352874755859</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>163.6999816894531</v>
+        <v>180.5673370361328</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>113.2314682006836</v>
+        <v>128.2878875732422</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>30.74907684326172</v>
+        <v>35.56736373901367</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>11.60842514038086</v>
+        <v>14.23628425598145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.01792907714844</v>
+        <v>11.670578956604</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>15.73414421081543</v>
+        <v>10.83156204223633</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>39.55740356445312</v>
+        <v>22.29590797424316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>114.1228637695312</v>
+        <v>80.52456665039062</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>155.6348419189453</v>
+        <v>198.9849700927734</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>66.571533203125</v>
+        <v>107.5608978271484</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>22.65284538269043</v>
+        <v>27.35372543334961</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.44597339630127</v>
+        <v>10.18430328369141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.26775550842285</v>
+        <v>9.313615798950195</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>25.63470268249512</v>
+        <v>5.148909568786621</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>70.60710906982422</v>
+        <v>9.676934242248535</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>143.4072113037109</v>
+        <v>38.97953414916992</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>87.93155670166016</v>
+        <v>157.7763061523438</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>27.82389259338379</v>
+        <v>173.2665252685547</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.79142189025879</v>
+        <v>48.80611801147461</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.936864852905273</v>
+        <v>7.267404556274414</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>16.05318832397461</v>
+        <v>5.452401638031006</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>46.81721878051758</v>
+        <v>1.810482382774353</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>133.8413848876953</v>
+        <v>-3.482763767242432</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>151.4462738037109</v>
+        <v>-6.819055080413818</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>52.80844116210938</v>
+        <v>-11.87612056732178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>18.81863212585449</v>
+        <v>-15.37423992156982</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>16.65157127380371</v>
+        <v>-28.63590621948242</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>18.94157218933105</v>
+        <v>-44.82270812988281</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>33.12283706665039</v>
+        <v>-46.24163436889648</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>87.64728546142578</v>
+        <v>-51.49990463256836</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>145.6823577880859</v>
+        <v>-59.56439590454102</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>80.30402374267578</v>
+        <v>-63.74213790893555</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>26.43050003051758</v>
+        <v>-70.59909820556641</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>7.257439136505127</v>
+        <v>-82.65325927734375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>6.403766632080078</v>
+        <v>-102.7164535522461</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>26.01762580871582</v>
+        <v>-123.9144439697266</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>79.144287109375</v>
+        <v>-130.7969818115234</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>167.7174224853516</v>
+        <v>-134.3218841552734</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>104.9330062866211</v>
+        <v>-141.6684722900391</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>29.27923965454102</v>
+        <v>-147.23291015625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>11.71099376678467</v>
+        <v>-150.9036407470703</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>11.75056266784668</v>
+        <v>-152.5523681640625</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>14.58115196228027</v>
+        <v>-150.9887237548828</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>44.53432464599609</v>
+        <v>-146.3053588867188</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>153.7042846679688</v>
+        <v>-137.9856567382812</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>224.4828948974609</v>
+        <v>-124.6057739257812</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>78.18585968017578</v>
+        <v>-105.692253112793</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>18.9956226348877</v>
+        <v>-80.76036071777344</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>11.76413917541504</v>
+        <v>-48.19581604003906</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>20.16615295410156</v>
+        <v>55.46716690063477</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>43.69867706298828</v>
+        <v>146.5453643798828</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>101.753532409668</v>
+        <v>76.93211364746094</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>160.570068359375</v>
+        <v>47.53124618530273</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>97.56956481933594</v>
+        <v>58.15583038330078</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>33.9848747253418</v>
+        <v>67.36293029785156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>3.796235799789429</v>
+        <v>92.45226287841797</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>-8.720400810241699</v>
+        <v>126.5050048828125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>9.444599151611328</v>
+        <v>148.8642883300781</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>92.49369812011719</v>
+        <v>143.816650390625</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>300.3984680175781</v>
+        <v>139.1482696533203</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>265.6524963378906</v>
+        <v>143.8572845458984</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>46.08965301513672</v>
+        <v>135.1828308105469</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>17.17066764831543</v>
+        <v>133.1286315917969</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>43.10516738891602</v>
+        <v>138.3961029052734</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>44.07829284667969</v>
+        <v>140.4386901855469</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>50.93697738647461</v>
+        <v>128.945556640625</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>120.0777053833008</v>
+        <v>131.0697021484375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>256.455322265625</v>
+        <v>140.3714599609375</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>165.0749359130859</v>
+        <v>130.6134338378906</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>40.00888442993164</v>
+        <v>124.5023803710938</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>-7.089748382568359</v>
+        <v>138.4294128417969</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>25.06966209411621</v>
+        <v>139.6824340820312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>131.0340423583984</v>
+        <v>130.2815246582031</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>262.7130432128906</v>
+        <v>129.9552764892578</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>179.4201049804688</v>
+        <v>132.5325317382812</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>78.61386108398438</v>
+        <v>125.4122619628906</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>67.06491088867188</v>
+        <v>123.0891723632812</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>68.6461181640625</v>
+        <v>132.951904296875</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>42.82782745361328</v>
+        <v>135.5079498291016</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>31.38843154907227</v>
+        <v>127.6926727294922</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>173.9785766601562</v>
+        <v>127.3538284301758</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>465.7403564453125</v>
+        <v>128.1465454101562</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>310.5599670410156</v>
+        <v>121.4016418457031</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>55.47211456298828</v>
+        <v>120.7429046630859</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>16.40031242370605</v>
+        <v>129.920166015625</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>117.1958999633789</v>
+        <v>131.1106872558594</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>230.3227691650391</v>
+        <v>124.8284759521484</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>222.6182708740234</v>
+        <v>124.4290161132812</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>170.3741912841797</v>
+        <v>124.0054092407227</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>174.5486602783203</v>
+        <v>117.7031097412109</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>170.4440155029297</v>
+        <v>118.2749176025391</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>101.5515747070312</v>
+        <v>126.31787109375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>7.121496200561523</v>
+        <v>127.3797225952148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>70.81455993652344</v>
+        <v>122.4029159545898</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>417.6493225097656</v>
+        <v>121.4865493774414</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>801.920654296875</v>
+        <v>119.8405075073242</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>303.452392578125</v>
+        <v>114.3880157470703</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>55.79733657836914</v>
+        <v>115.5952453613281</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>81.90031433105469</v>
+        <v>122.94873046875</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>216.1089477539062</v>
+        <v>123.9008331298828</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>271.3125915527344</v>
+        <v>119.9188842773438</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>239.9381103515625</v>
+        <v>118.6042709350586</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>288.3754272460938</v>
+        <v>115.9618530273438</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>345.0620422363281</v>
+        <v>111.1109237670898</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>242.5902404785156</v>
+        <v>112.9758377075195</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>63.17532348632812</v>
+        <v>119.6662521362305</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>-48.14776992797852</v>
+        <v>120.7052612304688</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>155.07568359375</v>
+        <v>117.4765472412109</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>725.81005859375</v>
+        <v>115.6985321044922</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>1166.4560546875</v>
+        <v>112.2976150512695</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>398.9109191894531</v>
+        <v>108.013427734375</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>82.89029693603516</v>
+        <v>110.2999038696289</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>139.5789337158203</v>
+        <v>116.5238037109375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>271.4207458496094</v>
+        <v>117.729377746582</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>227.4536590576172</v>
+        <v>115.0873260498047</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>282.6070251464844</v>
+        <v>112.818962097168</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>522.0396728515625</v>
+        <v>108.8328704833984</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>754.2579345703125</v>
+        <v>105.0190582275391</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>370.0810852050781</v>
+        <v>107.633903503418</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>51.63815307617188</v>
+        <v>113.5150299072266</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>-67.59098815917969</v>
+        <v>114.9431991577148</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>219.4894409179688</v>
+        <v>112.743537902832</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>835.1377563476562</v>
+        <v>109.9976654052734</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>1279.036743164062</v>
+        <v>105.5333099365234</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>531.8252563476562</v>
+        <v>102.1279525756836</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>164.1881256103516</v>
+        <v>104.9803314208984</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>206.2211151123047</v>
+        <v>110.6427230834961</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>256.1746826171875</v>
+        <v>112.3285522460938</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>148.0538177490234</v>
+        <v>110.4478073120117</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>309.4020080566406</v>
+        <v>107.239501953125</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>1016.227783203125</v>
+        <v>102.3911437988281</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>1747.998779296875</v>
+        <v>99.31897735595703</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>638.5220336914062</v>
+        <v>102.3590087890625</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>136.7264556884766</v>
+        <v>107.90185546875</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>60.872802734375</v>
+        <v>109.8647537231445</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>391.6534118652344</v>
+        <v>108.2051162719727</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>832.79736328125</v>
+        <v>104.5555038452148</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>909.3292236328125</v>
+        <v>99.38636016845703</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>672.72900390625</v>
+        <v>96.58550262451172</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>563.4767456054688</v>
+        <v>99.77915191650391</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>511.0491027832031</v>
+        <v>105.2893676757812</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>261.2803955078125</v>
+        <v>107.5354995727539</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>-11.2988109588623</v>
+        <v>106.0201263427734</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>246.2210540771484</v>
+        <v>101.9500122070312</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>1519.100463867188</v>
+        <v>96.5059814453125</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>2910.178466796875</v>
+        <v>93.91957092285156</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>1049.587280273438</v>
+        <v>97.24925994873047</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>155.6614074707031</v>
+        <v>102.8000793457031</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>238.4591827392578</v>
+        <v>105.3286743164062</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>742.6099243164062</v>
+        <v>103.8960876464844</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>926.9210815429688</v>
+        <v>99.42652893066406</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>846.5039672851562</v>
+        <v>93.73663330078125</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>1002.251220703125</v>
+        <v>91.31645202636719</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>1170.127807617188</v>
+        <v>94.7752685546875</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>810.9972534179688</v>
+        <v>100.428466796875</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>181.3165130615234</v>
+        <v>103.2343292236328</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>-210.7349243164062</v>
+        <v>101.8365478515625</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>505.9918212890625</v>
+        <v>96.98573303222656</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>2554.872314453125</v>
+        <v>91.06742858886719</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>4317.20849609375</v>
+        <v>88.77203369140625</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>1456.105712890625</v>
+        <v>92.36147308349609</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>254.5764007568359</v>
+        <v>98.16890716552734</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>462.6404724121094</v>
+        <v>101.2447128295898</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>957.886962890625</v>
+        <v>99.84417724609375</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>805.4971923828125</v>
+        <v>94.62725830078125</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>990.2039184570312</v>
+        <v>88.48858642578125</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>1823.805053710938</v>
+        <v>86.28338623046875</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>2755.029052734375</v>
+        <v>90.01053619384766</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>1341.239501953125</v>
+        <v>96.01595306396484</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>172.8660430908203</v>
+        <v>99.35362243652344</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>-279.1984252929688</v>
+        <v>97.92116546630859</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>748.9837036132812</v>
+        <v>92.34960174560547</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>3003.031494140625</v>
+        <v>85.99165344238281</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>4775.84375</v>
+        <v>83.84803771972656</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>1962.906005859375</v>
+        <v>87.72391510009766</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>556.156005859375</v>
+        <v>93.96442413330078</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>719.5006103515625</v>
+        <v>97.55619049072266</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>956.29541015625</v>
+        <v>96.06907653808594</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>565.1859741210938</v>
+        <v>90.150634765625</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>1107.335083007812</v>
+        <v>83.56925964355469</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>3602.868408203125</v>
+        <v>81.46383666992188</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>6365.09765625</v>
+        <v>85.50205993652344</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>2355.71630859375</v>
+        <v>92.00951385498047</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>492.6941833496094</v>
+        <v>95.84860229492188</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>176.8556976318359</v>
+        <v>94.28897094726562</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>1424.563842773438</v>
+        <v>88.02773284912109</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>3162.52197265625</v>
+        <v>81.21490478515625</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>3403.10400390625</v>
+        <v>79.12884521484375</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>2410.629638671875</v>
+        <v>83.34473419189453</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>2004.839599609375</v>
+        <v>90.14680480957031</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>1880.269897460938</v>
+        <v>94.22775268554688</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>1060.215942382812</v>
+        <v>92.58140563964844</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>29.87434577941895</v>
+        <v>85.97801208496094</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>919.3717651367188</v>
+        <v>78.92288208007812</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>5626.35986328125</v>
+        <v>76.84121704101562</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>10688.705078125</v>
+        <v>81.25106048583984</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>3834.292724609375</v>
+        <v>88.37229156494141</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>565.5051879882812</v>
+        <v>92.69122314453125</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>862.5817260742188</v>
+        <v>90.94654846191406</v>
       </c>
     </row>
   </sheetData>
